--- a/data/new_data/xlsx/subway_data/coding_line.xlsx
+++ b/data/new_data/xlsx/subway_data/coding_line.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\subway_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E8E465-192F-453D-A0ED-7CE4FA64B510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65785035-3F17-4E70-BBEC-C9518D85A71C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,60 +20,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>line1</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
-    <t>line2</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
-    <t>line3</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
-    <t>line4</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
-    <t>line6</t>
-  </si>
-  <si>
     <t>f</t>
   </si>
   <si>
-    <t>line7</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
-    <t>line8</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
-    <t>line11</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
-    <t>line12</t>
+    <t>linecode</t>
+  </si>
+  <si>
+    <t>linename</t>
+  </si>
+  <si>
+    <t>1号线</t>
+  </si>
+  <si>
+    <t>2号线</t>
+  </si>
+  <si>
+    <t>3号线</t>
+  </si>
+  <si>
+    <t>4号线</t>
+  </si>
+  <si>
+    <t>6号线</t>
+  </si>
+  <si>
+    <t>7号线</t>
+  </si>
+  <si>
+    <t>8号线</t>
+  </si>
+  <si>
+    <t>11号线</t>
+  </si>
+  <si>
+    <t>12号线</t>
   </si>
 </sst>
 </file>
@@ -914,84 +920,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
